--- a/results/cases-by-rosetta.xlsx
+++ b/results/cases-by-rosetta.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BV3"/>
+  <dimension ref="A1:BU3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -723,11 +723,6 @@
           <t>99893</t>
         </is>
       </c>
-      <c r="BV1" s="1" t="inlineStr">
-        <is>
-          <t>Hugo_Symbol</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -951,11 +946,6 @@
       <c r="BU2">
         <v>4</v>
       </c>
-      <c r="BV2" t="inlineStr">
-        <is>
-          <t>cases with &gt;= 1 acquired cysteine</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1178,11 +1168,6 @@
       </c>
       <c r="BU3">
         <v>17</v>
-      </c>
-      <c r="BV3" t="inlineStr">
-        <is>
-          <t>total sequenced cases</t>
-        </is>
       </c>
     </row>
   </sheetData>
